--- a/data-sets/gf_calcutaion.xlsx
+++ b/data-sets/gf_calcutaion.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deb\PycharmProjects\Bioimpedance-classifier\data-sets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deb/PycharmProjects/Bioimpedance-classifier/data-sets/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BC1D84-4D29-8040-A154-61AA71713204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27645" windowHeight="16155"/>
+    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -59,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -416,24 +411,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" activeCellId="1" sqref="G1:G1048576 I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="3"/>
-    <col min="2" max="2" width="25.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="25.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="7" max="7" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -456,7 +451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1000</v>
       </c>
@@ -465,11 +460,11 @@
         <v>38920531.280820198</v>
       </c>
       <c r="C2" s="3">
-        <v>16421.919999999998</v>
+        <v>16410.95</v>
       </c>
       <c r="D2">
         <f>1/(B2*C2)</f>
-        <v>1.5645783197092668E-12</v>
+        <v>1.5656241716658691E-12</v>
       </c>
       <c r="E2">
         <v>142542.03</v>
@@ -479,17 +474,17 @@
       </c>
       <c r="G2">
         <f>1/(D2*F2)</f>
-        <v>38929824.037710242</v>
+        <v>38903818.542025603</v>
       </c>
       <c r="H2">
         <v>16435.41</v>
       </c>
       <c r="I2">
         <f>1/(D2*H2)</f>
-        <v>38888585.745723821</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38862607.797613584</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2000</v>
       </c>
@@ -498,11 +493,11 @@
         <v>19460265.640410099</v>
       </c>
       <c r="C3" s="3">
-        <v>443.82</v>
+        <v>446.65</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D66" si="1">1/(B3*C3)</f>
-        <v>1.1578288495335946E-10</v>
+        <v>1.1504927795813275E-10</v>
       </c>
       <c r="E3">
         <v>5983649.5</v>
@@ -512,17 +507,17 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" si="2">1/(D3*F3)</f>
-        <v>19462896.828300904</v>
+        <v>19587001.19048398</v>
       </c>
       <c r="H3">
         <v>380.47</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I66" si="3">1/(D3*H3)</f>
-        <v>22700489.122734535</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22845237.859198283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3000</v>
       </c>
@@ -531,11 +526,11 @@
         <v>12973510.426940065</v>
       </c>
       <c r="C4" s="3">
-        <v>411.04</v>
+        <v>419.01</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>1.8752466913195797E-10</v>
+        <v>1.8395775757141838E-10</v>
       </c>
       <c r="E4">
         <v>5639101</v>
@@ -545,17 +540,17 @@
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>13037263.100235788</v>
+        <v>13290053.551065097</v>
       </c>
       <c r="H4">
         <v>321.01</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>16612042.384628033</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16934147.235264182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4000</v>
       </c>
@@ -564,11 +559,11 @@
         <v>9730132.8202050496</v>
       </c>
       <c r="C5" s="3">
-        <v>428.87</v>
+        <v>431.91</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>2.3963793224053909E-10</v>
+        <v>2.3795123984163367E-10</v>
       </c>
       <c r="E5">
         <v>5425454.5</v>
@@ -578,17 +573,17 @@
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>9783742.995876722</v>
+        <v>9853094.0316392276</v>
       </c>
       <c r="H5">
         <v>306.94</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>13595367.376690362</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13691736.711978767</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5000</v>
       </c>
@@ -597,11 +592,11 @@
         <v>7784106.2561640395</v>
       </c>
       <c r="C6" s="3">
-        <v>486.63</v>
+        <v>486.58</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>2.6399297207323838E-10</v>
+        <v>2.6402009946976861E-10</v>
       </c>
       <c r="E6">
         <v>6484788</v>
@@ -611,17 +606,17 @@
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>7710115.2604052648</v>
+        <v>7709323.0655898592</v>
       </c>
       <c r="H6">
         <v>351.64</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>10772322.908193342</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10771216.079297855</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6000</v>
       </c>
@@ -630,11 +625,11 @@
         <v>6486755.2134700324</v>
       </c>
       <c r="C7" s="3">
-        <v>578.19000000000005</v>
+        <v>586.95000000000005</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>2.6662564208997041E-10</v>
+        <v>2.6264635829286991E-10</v>
       </c>
       <c r="E7">
         <v>5565001</v>
@@ -644,17 +639,17 @@
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>6521948.6269084429</v>
+        <v>6620760.9031009013</v>
       </c>
       <c r="H7">
         <v>421.22</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>8904080.9953853991</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9038984.3135326803</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7000</v>
       </c>
@@ -663,11 +658,11 @@
         <v>5560075.8972600279</v>
       </c>
       <c r="C8" s="3">
-        <v>665.65</v>
+        <v>674.76</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>2.7019253361376099E-10</v>
+        <v>2.665446380935444E-10</v>
       </c>
       <c r="E8">
         <v>4783500</v>
@@ -677,17 +672,17 @@
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>5556903.6244780831</v>
+        <v>5632954.6903820792</v>
       </c>
       <c r="H8">
         <v>480.28</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>7706055.8861729363</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7811519.9725892739</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8000</v>
       </c>
@@ -696,11 +691,11 @@
         <v>4865066.4101025248</v>
       </c>
       <c r="C9" s="3">
-        <v>730.64</v>
+        <v>751.8</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>2.8132464688492275E-10</v>
+        <v>2.7340654429369514E-10</v>
       </c>
       <c r="E9">
         <v>3698296.5</v>
@@ -710,17 +705,17 @@
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>4831802.4683313295</v>
+        <v>4971735.8695000177</v>
       </c>
       <c r="H9">
         <v>524.54</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>6776627.372321099</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6972884.6744101085</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9000</v>
       </c>
@@ -729,11 +724,11 @@
         <v>4324503.4756466886</v>
       </c>
       <c r="C10" s="3">
-        <v>814.73</v>
+        <v>841.22</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>2.8382460447019252E-10</v>
+        <v>2.7488697368108221E-10</v>
       </c>
       <c r="E10">
         <v>3943287</v>
@@ -743,17 +738,17 @@
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>4324185.0252379477</v>
+        <v>4464780.8806974897</v>
       </c>
       <c r="H10">
         <v>582.84</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>6045059.9078883175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6241608.0121191191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10000</v>
       </c>
@@ -762,11 +757,11 @@
         <v>3892053.1280820197</v>
       </c>
       <c r="C11" s="3">
-        <v>920.38</v>
+        <v>938.44</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>2.7916056411482211E-10</v>
+        <v>2.7378820169643234E-10</v>
       </c>
       <c r="E11">
         <v>2934814.25</v>
@@ -776,17 +771,17 @@
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>3955399.3397201202</v>
+        <v>4033013.4904788779</v>
       </c>
       <c r="H11">
         <v>648.74</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>5521731.137318694</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5630080.3673540875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11000</v>
       </c>
@@ -795,11 +790,11 @@
         <v>3538230.1164381998</v>
       </c>
       <c r="C12" s="3">
-        <v>1005.21</v>
+        <v>1030.33</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>2.8116232429044675E-10</v>
+        <v>2.7430743548183592E-10</v>
       </c>
       <c r="E12">
         <v>2349159</v>
@@ -809,17 +804,17 @@
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>3584190.8813133291</v>
+        <v>3673759.1058023316</v>
       </c>
       <c r="H12">
         <v>709.2</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>5015037.0774743976</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5140361.8667086428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12000</v>
       </c>
@@ -828,11 +823,11 @@
         <v>3243377.6067350162</v>
       </c>
       <c r="C13" s="3">
-        <v>1070.1300000000001</v>
+        <v>1101.1400000000001</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>2.8811505144234807E-10</v>
+        <v>2.8000123508364056E-10</v>
       </c>
       <c r="E13">
         <v>2148243.25</v>
@@ -842,17 +837,17 @@
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>3277279.5481798421</v>
+        <v>3372247.8593093841</v>
       </c>
       <c r="H13">
         <v>766.42</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>4528634.0104581611</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4659863.8055898808</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13000</v>
       </c>
@@ -861,11 +856,11 @@
         <v>2993887.0216015535</v>
       </c>
       <c r="C14" s="3">
-        <v>1144.24</v>
+        <v>1181.17</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>2.9190898762497377E-10</v>
+        <v>2.8278227520170678E-10</v>
       </c>
       <c r="E14">
         <v>2022939.25</v>
@@ -875,17 +870,17 @@
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>3020921.7686043754</v>
+        <v>3118421.1052073254</v>
       </c>
       <c r="H14">
         <v>835.3</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>4101191.5307043721</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4233556.2472226825</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14000</v>
       </c>
@@ -894,11 +889,11 @@
         <v>2780037.948630014</v>
       </c>
       <c r="C15" s="3">
-        <v>1228.74</v>
+        <v>1275.77</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>2.9274486058889594E-10</v>
+        <v>2.8195311067041866E-10</v>
       </c>
       <c r="E15">
         <v>1911088</v>
@@ -908,17 +903,17 @@
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>2814116.8083631094</v>
+        <v>2921827.0753824268</v>
       </c>
       <c r="H15">
         <v>908.39</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>3760437.5092192157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3904368.1829651501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15000</v>
       </c>
@@ -927,11 +922,11 @@
         <v>2594702.0853880132</v>
       </c>
       <c r="C16" s="3">
-        <v>1318.17</v>
+        <v>1372.92</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>2.9237556612576523E-10</v>
+        <v>2.8071606502928063E-10</v>
       </c>
       <c r="E16">
         <v>1830967.25</v>
@@ -941,17 +936,17 @@
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>2641779.0094045768</v>
+        <v>2751504.9178723013</v>
       </c>
       <c r="H16">
         <v>967.32</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>3535808.675408259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3682667.9765443816</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16000</v>
       </c>
@@ -960,11 +955,11 @@
         <v>2432533.2050512624</v>
       </c>
       <c r="C17" s="3">
-        <v>1397.79</v>
+        <v>1451.32</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>2.9410289099220914E-10</v>
+        <v>2.8325529862470027E-10</v>
       </c>
       <c r="E17">
         <v>1816912.87</v>
@@ -974,17 +969,17 @@
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>2493726.0916388119</v>
+        <v>2589226.2437971663</v>
       </c>
       <c r="H17">
         <v>1031.21</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>3297263.0101420693</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3423535.5467412048</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17000</v>
       </c>
@@ -993,11 +988,11 @@
         <v>2289443.016518835</v>
       </c>
       <c r="C18" s="3">
-        <v>1475.25</v>
+        <v>1539.16</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>2.9607690899847485E-10</v>
+        <v>2.8378301151277323E-10</v>
       </c>
       <c r="E18">
         <v>1641817.75</v>
@@ -1007,17 +1002,17 @@
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>2353134.3603652227</v>
+        <v>2455075.6021689451</v>
       </c>
       <c r="H18">
         <v>1083.82</v>
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
-        <v>3116293.1207390628</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3251295.522600736</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18000</v>
       </c>
@@ -1026,11 +1021,11 @@
         <v>2162251.7378233443</v>
       </c>
       <c r="C19" s="3">
-        <v>1546.13</v>
+        <v>1622.56</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>2.991215745118457E-10</v>
+        <v>2.8503157972586532E-10</v>
       </c>
       <c r="E19">
         <v>1511996.62</v>
@@ -1040,17 +1035,17 @@
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>2217056.9061819385</v>
+        <v>2326652.9035039525</v>
       </c>
       <c r="H19">
         <v>1136.67</v>
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
-        <v>2941154.6705735237</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3086545.0656062402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19000</v>
       </c>
@@ -1059,11 +1054,11 @@
         <v>2048449.0147800106</v>
       </c>
       <c r="C20" s="3">
-        <v>1616.55</v>
+        <v>1696.4</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>3.0198522779994427E-10</v>
+        <v>2.877707026644659E-10</v>
       </c>
       <c r="E20">
         <v>1440276</v>
@@ -1073,17 +1068,17 @@
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
-        <v>2098744.6237776577</v>
+        <v>2202412.7801654255</v>
       </c>
       <c r="H20">
         <v>1198.21</v>
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
-        <v>2763639.3076694622</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2900150.1478645732</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20000</v>
       </c>
@@ -1092,11 +1087,11 @@
         <v>1946026.5640410099</v>
       </c>
       <c r="C21" s="3">
-        <v>1683.34</v>
+        <v>1799.04</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>3.0526667221119918E-10</v>
+        <v>2.8563433831376732E-10</v>
       </c>
       <c r="E21">
         <v>1381923</v>
@@ -1106,17 +1101,17 @@
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
-        <v>1997185.9606106456</v>
+        <v>2134457.3470463343</v>
       </c>
       <c r="H21">
         <v>1256.96</v>
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
-        <v>2606148.4504779731</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2785275.290997596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21000</v>
       </c>
@@ -1125,11 +1120,11 @@
         <v>1853358.6324200092</v>
       </c>
       <c r="C22" s="3">
-        <v>1769.98</v>
+        <v>1885</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>3.0484015638594791E-10</v>
+        <v>2.8623924668435018E-10</v>
       </c>
       <c r="E22">
         <v>1337519.25</v>
@@ -1139,17 +1134,17 @@
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>1921614.7244235976</v>
+        <v>2046488.5227734107</v>
       </c>
       <c r="H22">
         <v>1326.73</v>
       </c>
       <c r="I22">
         <f t="shared" si="3"/>
-        <v>2472551.0934483786</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2633226.822421832</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22000</v>
       </c>
@@ -1158,11 +1153,11 @@
         <v>1769115.0582190999</v>
       </c>
       <c r="C23" s="3">
-        <v>1846.45</v>
+        <v>1975.98</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>3.0613033659183836E-10</v>
+        <v>2.8606279415783556E-10</v>
       </c>
       <c r="E23">
         <v>1298427</v>
@@ -1172,17 +1167,17 @@
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>1819863.6734237291</v>
+        <v>1947528.6205485233</v>
       </c>
       <c r="H23">
         <v>1383.67</v>
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
-        <v>2360810.3805449689</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2526423.188144411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23000</v>
       </c>
@@ -1191,11 +1186,11 @@
         <v>1692197.0122095738</v>
       </c>
       <c r="C24" s="3">
-        <v>1922.67</v>
+        <v>2060.15</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>3.0735786172354071E-10</v>
+        <v>2.8684694803776423E-10</v>
       </c>
       <c r="E24">
         <v>1200792.75</v>
@@ -1205,17 +1200,17 @@
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>1741927.0093185389</v>
+        <v>1866483.0304979996</v>
       </c>
       <c r="H24">
         <v>1444.73</v>
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
-        <v>2252003.0936333993</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2413031.9677057671</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24000</v>
       </c>
@@ -1224,11 +1219,11 @@
         <v>1621688.8033675081</v>
       </c>
       <c r="C25" s="3">
-        <v>1992.82</v>
+        <v>2142.3200000000002</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>3.0943141879346857E-10</v>
+        <v>2.8783800739385337E-10</v>
       </c>
       <c r="E25">
         <v>1173406.3700000001</v>
@@ -1238,17 +1233,17 @@
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>1664923.9239835956</v>
+        <v>1789825.3835411812</v>
       </c>
       <c r="H25">
         <v>1506.69</v>
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
-        <v>2144922.8979596579</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2305833.5538367415</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25000</v>
       </c>
@@ -1257,11 +1252,11 @@
         <v>1556821.251232808</v>
       </c>
       <c r="C26" s="3">
-        <v>2062.14</v>
+        <v>2221.87</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>3.1148927812854608E-10</v>
+        <v>2.8909634677096321E-10</v>
       </c>
       <c r="E26">
         <v>1142814</v>
@@ -1271,17 +1266,17 @@
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>1589432.4646218852</v>
+        <v>1712547.3101581016</v>
       </c>
       <c r="H26">
         <v>1564.4</v>
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
-        <v>2052149.9456770786</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2211106.1323680892</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26000</v>
       </c>
@@ -1290,11 +1285,11 @@
         <v>1496943.5108007768</v>
       </c>
       <c r="C27" s="3">
-        <v>2126.1999999999998</v>
+        <v>2317.4699999999998</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>3.1418863700498545E-10</v>
+        <v>2.882574013903093E-10</v>
       </c>
       <c r="E27">
         <v>1121922.25</v>
@@ -1304,17 +1299,17 @@
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
-        <v>1526157.4167655772</v>
+        <v>1663448.4190723931</v>
       </c>
       <c r="H27">
         <v>1620.54</v>
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
-        <v>1964037.4768068739</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2140719.5613656407</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27000</v>
       </c>
@@ -1323,11 +1318,11 @@
         <v>1441501.1585488962</v>
       </c>
       <c r="C28" s="3">
-        <v>2193.29</v>
+        <v>2412.33</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>3.1629253769451373E-10</v>
+        <v>2.875731181057318E-10</v>
       </c>
       <c r="E28">
         <v>1153801.75</v>
@@ -1337,17 +1332,17 @@
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
-        <v>1482127.5735331494</v>
+        <v>1630145.0375742479</v>
       </c>
       <c r="H28">
         <v>1664.6</v>
       </c>
       <c r="I28">
         <f t="shared" si="3"/>
-        <v>1899333.2188115516</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2089016.2740611911</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28000</v>
       </c>
@@ -1356,11 +1351,11 @@
         <v>1390018.974315007</v>
       </c>
       <c r="C29" s="3">
-        <v>2269.13</v>
+        <v>2494.25</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>3.170442592535465E-10</v>
+        <v>2.8842924325949686E-10</v>
       </c>
       <c r="E29">
         <v>1099492.1200000001</v>
@@ -1370,17 +1365,17 @@
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
-        <v>1431043.2267374198</v>
+        <v>1573016.7810084959</v>
       </c>
       <c r="H29">
         <v>1727.62</v>
       </c>
       <c r="I29">
         <f t="shared" si="3"/>
-        <v>1825710.3733387042</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2006838.7878614545</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29000</v>
       </c>
@@ -1389,11 +1384,11 @@
         <v>1342087.285545524</v>
       </c>
       <c r="C30" s="3">
-        <v>2363.1999999999998</v>
+        <v>2579.42</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>3.1529621699390659E-10</v>
+        <v>2.8886649711950748E-10</v>
       </c>
       <c r="E30">
         <v>1024842.87</v>
@@ -1403,17 +1398,17 @@
       </c>
       <c r="G30">
         <f t="shared" si="2"/>
-        <v>1397793.1764379255</v>
+        <v>1525683.6810966125</v>
       </c>
       <c r="H30">
         <v>1796.07</v>
       </c>
       <c r="I30">
         <f t="shared" si="3"/>
-        <v>1765866.9613106293</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1927434.223656002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30000</v>
       </c>
@@ -1422,11 +1417,11 @@
         <v>1297351.0426940066</v>
       </c>
       <c r="C31" s="3">
-        <v>2433.83</v>
+        <v>2660.19</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>3.167030564994268E-10</v>
+        <v>2.8975426567275269E-10</v>
       </c>
       <c r="E31">
         <v>1027887.06</v>
@@ -1436,17 +1431,17 @@
       </c>
       <c r="G31">
         <f t="shared" si="2"/>
-        <v>1343059.0762398785</v>
+        <v>1467971.1910949254</v>
       </c>
       <c r="H31">
         <v>1865.83</v>
       </c>
       <c r="I31">
         <f t="shared" si="3"/>
-        <v>1692293.4502285603</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1849686.3434847598</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31000</v>
       </c>
@@ -1455,11 +1450,11 @@
         <v>1255501.009058716</v>
       </c>
       <c r="C32" s="3">
-        <v>2494.5700000000002</v>
+        <v>2741.42</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>3.1929141294892501E-10</v>
+        <v>2.905409532286187E-10</v>
       </c>
       <c r="E32">
         <v>970254.68</v>
@@ -1469,17 +1464,17 @@
       </c>
       <c r="G32">
         <f t="shared" si="2"/>
-        <v>1292697.7378012959</v>
+        <v>1420616.5520964449</v>
       </c>
       <c r="H32">
         <v>1926.98</v>
       </c>
       <c r="I32">
         <f t="shared" si="3"/>
-        <v>1625307.5549137001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1786139.7504145065</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>32000</v>
       </c>
@@ -1488,11 +1483,11 @@
         <v>1216266.6025256312</v>
       </c>
       <c r="C33" s="3">
-        <v>2558.9299999999998</v>
+        <v>2830.25</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>3.213015440047207E-10</v>
+        <v>2.9050018902923769E-10</v>
       </c>
       <c r="E33">
         <v>986853.31</v>
@@ -1502,17 +1497,17 @@
       </c>
       <c r="G33">
         <f t="shared" si="2"/>
-        <v>1255979.0063037884</v>
+        <v>1389148.8171193807</v>
       </c>
       <c r="H33">
         <v>1986.67</v>
       </c>
       <c r="I33">
         <f t="shared" si="3"/>
-        <v>1566612.0176984167</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1732717.8403047149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33000</v>
       </c>
@@ -1521,11 +1516,11 @@
         <v>1179410.0388127333</v>
       </c>
       <c r="C34" s="3">
-        <v>2625.34</v>
+        <v>2908.32</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
-        <v>3.2296066033351869E-10</v>
+        <v>2.9153653655718759E-10</v>
       </c>
       <c r="E34">
         <v>1002170.56</v>
@@ -1535,17 +1530,17 @@
       </c>
       <c r="G34">
         <f t="shared" si="2"/>
-        <v>1222361.760259849</v>
+        <v>1354117.6208029911</v>
       </c>
       <c r="H34">
         <v>2047.4</v>
       </c>
       <c r="I34">
         <f t="shared" si="3"/>
-        <v>1512333.8630930062</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1675345.2203183786</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34000</v>
       </c>
@@ -1554,11 +1549,11 @@
         <v>1144721.5082594175</v>
       </c>
       <c r="C35" s="3">
-        <v>2677.84</v>
+        <v>2994.06</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>3.2622371762315898E-10</v>
+        <v>2.917693432997335E-10</v>
       </c>
       <c r="E35">
         <v>1029510.56</v>
@@ -1568,17 +1563,17 @@
       </c>
       <c r="G35">
         <f t="shared" si="2"/>
-        <v>1177018.9388860981</v>
+        <v>1316010.4129303135</v>
       </c>
       <c r="H35">
         <v>2102.2600000000002</v>
       </c>
       <c r="I35">
         <f t="shared" si="3"/>
-        <v>1458136.0267889786</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1630323.9746840026</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35000</v>
       </c>
@@ -1587,11 +1582,11 @@
         <v>1112015.1794520058</v>
       </c>
       <c r="C36" s="3">
-        <v>2738.63</v>
+        <v>3075.26</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>3.2836429163486848E-10</v>
+        <v>2.9242025064547378E-10</v>
       </c>
       <c r="E36">
         <v>995091.56</v>
@@ -1601,17 +1596,17 @@
       </c>
       <c r="G36">
         <f t="shared" si="2"/>
-        <v>1145291.2423573167</v>
+        <v>1286069.4383585085</v>
       </c>
       <c r="H36">
         <v>2152.2199999999998</v>
       </c>
       <c r="I36">
         <f t="shared" si="3"/>
-        <v>1415003.1738867993</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1588934.1241887799</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36000</v>
       </c>
@@ -1620,11 +1615,11 @@
         <v>1081125.8689116722</v>
       </c>
       <c r="C37" s="3">
-        <v>2813.92</v>
+        <v>3158.5</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>3.2870930232558136E-10</v>
+        <v>2.9284840272281143E-10</v>
       </c>
       <c r="E37">
         <v>1024051.18</v>
@@ -1634,17 +1629,17 @@
       </c>
       <c r="G37">
         <f t="shared" si="2"/>
-        <v>1116568.1953490174</v>
+        <v>1253298.1197084037</v>
       </c>
       <c r="H37">
         <v>2210.6</v>
       </c>
       <c r="I37">
         <f t="shared" si="3"/>
-        <v>1376188.2317234834</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1544710.0592407114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>37000</v>
       </c>
@@ -1653,11 +1648,11 @@
         <v>1051906.2508329784</v>
       </c>
       <c r="C38" s="3">
-        <v>2879.53</v>
+        <v>3232.51</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>3.3014243991206891E-10</v>
+        <v>2.9409191618896766E-10</v>
       </c>
       <c r="E38">
         <v>1045816.62</v>
@@ -1667,17 +1662,17 @@
       </c>
       <c r="G38">
         <f t="shared" si="2"/>
-        <v>1093046.4271010542</v>
+        <v>1227034.7959800484</v>
       </c>
       <c r="H38">
         <v>2270.6799999999998</v>
       </c>
       <c r="I38">
         <f t="shared" si="3"/>
-        <v>1333959.6977386011</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1497479.8187679953</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>38000</v>
       </c>
@@ -1686,11 +1681,11 @@
         <v>1024224.5073900053</v>
       </c>
       <c r="C39" s="3">
-        <v>2954.06</v>
+        <v>3317.6</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>3.3051070052740968E-10</v>
+        <v>2.9429359778152877E-10</v>
       </c>
       <c r="E39">
         <v>1037796.68</v>
@@ -1700,17 +1695,17 @@
       </c>
       <c r="G39">
         <f t="shared" si="2"/>
-        <v>1063999.4121248259</v>
+        <v>1194939.9977201961</v>
       </c>
       <c r="H39">
         <v>2343.09</v>
       </c>
       <c r="I39">
         <f t="shared" si="3"/>
-        <v>1291295.1053098766</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1450207.7281355311</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>39000</v>
       </c>
@@ -1719,11 +1714,11 @@
         <v>997962.34053385118</v>
       </c>
       <c r="C40" s="3">
-        <v>3010.86</v>
+        <v>3405.42</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
-        <v>3.328091708016978E-10</v>
+        <v>2.9424911464665153E-10</v>
       </c>
       <c r="E40">
         <v>1021263</v>
@@ -1733,17 +1728,17 @@
       </c>
       <c r="G40">
         <f t="shared" si="2"/>
-        <v>1031636.8623762272</v>
+        <v>1166828.3493331643</v>
       </c>
       <c r="H40">
         <v>2404.48</v>
       </c>
       <c r="I40">
         <f t="shared" si="3"/>
-        <v>1249636.0512958108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1413395.3760067821</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>40000</v>
       </c>
@@ -1752,11 +1747,11 @@
         <v>973013.28202050494</v>
       </c>
       <c r="C41" s="3">
-        <v>3083.22</v>
+        <v>3486.4</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>3.3333177651935312E-10</v>
+        <v>2.947840752638825E-10</v>
       </c>
       <c r="E41">
         <v>989139.5</v>
@@ -1766,17 +1761,17 @@
       </c>
       <c r="G41">
         <f t="shared" si="2"/>
-        <v>1009337.6795405721</v>
+        <v>1141324.6171049261</v>
       </c>
       <c r="H41">
         <v>2463.86</v>
       </c>
       <c r="I41">
         <f t="shared" si="3"/>
-        <v>1217607.3362087382</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1376828.8402897439</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41000</v>
       </c>
@@ -1785,11 +1780,11 @@
         <v>949281.25075171201</v>
       </c>
       <c r="C42" s="3">
-        <v>3139.49</v>
+        <v>3567.49</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
-        <v>3.3554130766462078E-10</v>
+        <v>2.9528564340754989E-10</v>
       </c>
       <c r="E42">
         <v>957105.68</v>
@@ -1799,17 +1794,17 @@
       </c>
       <c r="G42">
         <f t="shared" si="2"/>
-        <v>984321.25517218886</v>
+        <v>1118511.6801181824</v>
       </c>
       <c r="H42">
         <v>2522.3200000000002</v>
       </c>
       <c r="I42">
         <f t="shared" si="3"/>
-        <v>1181554.6774090882</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1342633.5156697899</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42000</v>
       </c>
@@ -1818,11 +1813,11 @@
         <v>926679.31621000462</v>
       </c>
       <c r="C43" s="3">
-        <v>3192.86</v>
+        <v>3645.15</v>
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
-        <v>3.3797972977205388E-10</v>
+        <v>2.9604322455866015E-10</v>
       </c>
       <c r="E43">
         <v>766510.25</v>
@@ -1832,17 +1827,17 @@
       </c>
       <c r="G43">
         <f t="shared" si="2"/>
-        <v>956625.74130972964</v>
+        <v>1092138.1836144275</v>
       </c>
       <c r="H43">
         <v>2574.91</v>
       </c>
       <c r="I43">
         <f t="shared" si="3"/>
-        <v>1149072.1312800352</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1311845.8934420615</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43000</v>
       </c>
@@ -1851,11 +1846,11 @@
         <v>905128.6344376792</v>
       </c>
       <c r="C44" s="3">
-        <v>3243.59</v>
+        <v>3729.09</v>
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
-        <v>3.4061497908181973E-10</v>
+        <v>2.9626942229873772E-10</v>
       </c>
       <c r="E44">
         <v>657780.12</v>
@@ -1865,17 +1860,17 @@
       </c>
       <c r="G44">
         <f t="shared" si="2"/>
-        <v>929642.30805485405</v>
+        <v>1068791.0107455859</v>
       </c>
       <c r="H44">
         <v>2624.87</v>
       </c>
       <c r="I44">
         <f t="shared" si="3"/>
-        <v>1118480.6056588371</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1285894.5926446661</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44000</v>
       </c>
@@ -1884,11 +1879,11 @@
         <v>884557.52910954994</v>
       </c>
       <c r="C45" s="3">
-        <v>3312.65</v>
+        <v>3803.81</v>
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
-        <v>3.4127019757595876E-10</v>
+        <v>2.9720430831192934E-10</v>
       </c>
       <c r="E45">
         <v>613115.25</v>
@@ -1898,17 +1893,17 @@
       </c>
       <c r="G45">
         <f t="shared" si="2"/>
-        <v>909910.25783059327</v>
+        <v>1044820.8346304585</v>
       </c>
       <c r="H45">
         <v>2682.51</v>
       </c>
       <c r="I45">
         <f t="shared" si="3"/>
-        <v>1092346.1604261496</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1254306.1441717634</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45000</v>
       </c>
@@ -1917,11 +1912,11 @@
         <v>864900.69512933784</v>
       </c>
       <c r="C46" s="3">
-        <v>3398.49</v>
+        <v>3892.71</v>
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
-        <v>3.4021053467863662E-10</v>
+        <v>2.9701727074454549E-10</v>
       </c>
       <c r="E46">
         <v>617436.68000000005</v>
@@ -1931,17 +1926,17 @@
       </c>
       <c r="G46">
         <f t="shared" si="2"/>
-        <v>896897.20448244817</v>
+        <v>1027327.053150332</v>
       </c>
       <c r="H46">
         <v>2735.5</v>
       </c>
       <c r="I46">
         <f t="shared" si="3"/>
-        <v>1074522.523630087</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1230783.2516676751</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>46000</v>
       </c>
@@ -1950,11 +1945,11 @@
         <v>846098.50610478688</v>
       </c>
       <c r="C47" s="3">
-        <v>3455.11</v>
+        <v>3977.34</v>
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
-        <v>3.420717372239957E-10</v>
+        <v>2.9715726591138801E-10</v>
       </c>
       <c r="E47">
         <v>684622.25</v>
@@ -1964,17 +1959,17 @@
       </c>
       <c r="G47">
         <f t="shared" si="2"/>
-        <v>873897.94614005473</v>
+        <v>1005985.122644629</v>
       </c>
       <c r="H47">
         <v>2792.41</v>
       </c>
       <c r="I47">
         <f t="shared" si="3"/>
-        <v>1046896.1969867286</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1205131.5645878697</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>47000</v>
       </c>
@@ -1983,11 +1978,11 @@
         <v>828096.41023021704</v>
       </c>
       <c r="C48" s="3">
-        <v>3522.48</v>
+        <v>4055.44</v>
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
-        <v>3.4282348231927496E-10</v>
+        <v>2.9777012112125931E-10</v>
       </c>
       <c r="E48">
         <v>633982.37</v>
@@ -1997,17 +1992,17 @@
       </c>
       <c r="G48">
         <f t="shared" si="2"/>
-        <v>855767.81038078468</v>
+        <v>985247.61217399372</v>
       </c>
       <c r="H48">
         <v>2854.57</v>
       </c>
       <c r="I48">
         <f t="shared" si="3"/>
-        <v>1021853.7443845255</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1176462.7617833968</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48000</v>
       </c>
@@ -2016,11 +2011,11 @@
         <v>810844.40168375405</v>
       </c>
       <c r="C49" s="3">
-        <v>3577.7</v>
+        <v>4135.96</v>
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
-        <v>3.4471370992537107E-10</v>
+        <v>2.9818524357102103E-10</v>
       </c>
       <c r="E49">
         <v>640350.12</v>
@@ -2030,17 +2025,17 @@
       </c>
       <c r="G49">
         <f t="shared" si="2"/>
-        <v>834294.28090441192</v>
+        <v>964476.55590167176</v>
       </c>
       <c r="H49">
         <v>2912.29</v>
       </c>
       <c r="I49">
         <f t="shared" si="3"/>
-        <v>996108.90945062716</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1151540.5442411089</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>49000</v>
       </c>
@@ -2049,11 +2044,11 @@
         <v>794296.55675143271</v>
       </c>
       <c r="C50" s="3">
-        <v>3645.93</v>
+        <v>4201.8900000000003</v>
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
-        <v>3.4530987155540557E-10</v>
+        <v>2.9962127042830716E-10</v>
       </c>
       <c r="E50">
         <v>669617.25</v>
@@ -2063,17 +2058,17 @@
       </c>
       <c r="G50">
         <f t="shared" si="2"/>
-        <v>821912.07010122272</v>
+        <v>947243.66848448198</v>
       </c>
       <c r="H50">
         <v>2967.34</v>
       </c>
       <c r="I50">
         <f t="shared" si="3"/>
-        <v>975941.29596094496</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1124760.4786941428</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>50000</v>
       </c>
@@ -2082,11 +2077,11 @@
         <v>778410.625616404</v>
       </c>
       <c r="C51" s="3">
-        <v>3700.74</v>
+        <v>4277.7299999999996</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
-        <v>3.4713841015580671E-10</v>
+        <v>3.0031558794033284E-10</v>
       </c>
       <c r="E51">
         <v>587229.06000000006</v>
@@ -2096,17 +2091,17 @@
       </c>
       <c r="G51">
         <f t="shared" si="2"/>
-        <v>801647.24866038968</v>
+        <v>926633.72325859405</v>
       </c>
       <c r="H51">
         <v>3025.01</v>
       </c>
       <c r="I51">
         <f t="shared" si="3"/>
-        <v>952292.83164143271</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1100766.7695373103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>51000</v>
       </c>
@@ -2115,11 +2110,11 @@
         <v>763147.67217294511</v>
       </c>
       <c r="C52" s="3">
-        <v>3753.12</v>
+        <v>4369.54</v>
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
-        <v>3.4913948394935409E-10</v>
+        <v>2.9988565844459598E-10</v>
       </c>
       <c r="E52">
         <v>530674.06000000006</v>
@@ -2129,17 +2124,17 @@
       </c>
       <c r="G52">
         <f t="shared" si="2"/>
-        <v>782192.28874407359</v>
+        <v>910661.12817036989</v>
       </c>
       <c r="H52">
         <v>3079.86</v>
       </c>
       <c r="I52">
         <f t="shared" si="3"/>
-        <v>929972.39854594809</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1082712.9413241413</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>52000</v>
       </c>
@@ -2148,11 +2143,11 @@
         <v>748471.75540038839</v>
       </c>
       <c r="C53" s="3">
-        <v>3788.63</v>
+        <v>4441.29</v>
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
-        <v>3.5264878333328936E-10</v>
+        <v>3.0082605729416453E-10</v>
       </c>
       <c r="E53">
         <v>519959.84</v>
@@ -2162,17 +2157,17 @@
       </c>
       <c r="G53">
         <f t="shared" si="2"/>
-        <v>761737.61880987277</v>
+        <v>892960.69266307354</v>
       </c>
       <c r="H53">
         <v>3136.1</v>
       </c>
       <c r="I53">
         <f t="shared" si="3"/>
-        <v>904206.67283013079</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1059972.6164797652</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>53000</v>
       </c>
@@ -2181,11 +2176,11 @@
         <v>734349.64680792834</v>
       </c>
       <c r="C54" s="3">
-        <v>3855.42</v>
+        <v>4516.25</v>
       </c>
       <c r="D54">
         <f t="shared" si="1"/>
-        <v>3.5320383771417894E-10</v>
+        <v>3.0152209022972591E-10</v>
       </c>
       <c r="E54">
         <v>750485.93</v>
@@ -2195,17 +2190,17 @@
       </c>
       <c r="G54">
         <f t="shared" si="2"/>
-        <v>751289.32683812967</v>
+        <v>880062.46331987274</v>
       </c>
       <c r="H54">
         <v>3182.01</v>
       </c>
       <c r="I54">
         <f t="shared" si="3"/>
-        <v>889760.34496944479</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1042267.8094651827</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>54000</v>
       </c>
@@ -2214,11 +2209,11 @@
         <v>720750.5792744481</v>
       </c>
       <c r="C55" s="3">
-        <v>3921.69</v>
+        <v>4599.2299999999996</v>
       </c>
       <c r="D55">
         <f t="shared" si="1"/>
-        <v>3.5378689289566488E-10</v>
+        <v>3.016684358033845E-10</v>
       </c>
       <c r="E55">
         <v>643699.56000000006</v>
@@ -2228,17 +2223,17 @@
       </c>
       <c r="G55">
         <f t="shared" si="2"/>
-        <v>742600.51473473187</v>
+        <v>870897.63989081769</v>
       </c>
       <c r="H55">
         <v>3238.29</v>
       </c>
       <c r="I55">
         <f t="shared" si="3"/>
-        <v>872855.84034623532</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1023656.8333028911</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>55000</v>
       </c>
@@ -2247,11 +2242,11 @@
         <v>707646.02328763995</v>
       </c>
       <c r="C56" s="3">
-        <v>3969.72</v>
+        <v>4676.8999999999996</v>
       </c>
       <c r="D56">
         <f t="shared" si="1"/>
-        <v>3.5597873401650494E-10</v>
+        <v>3.0215225897496205E-10</v>
       </c>
       <c r="E56">
         <v>495282.87</v>
@@ -2261,17 +2256,17 @@
       </c>
       <c r="G56">
         <f t="shared" si="2"/>
-        <v>732262.47671968082</v>
+        <v>862710.3113998659</v>
       </c>
       <c r="H56">
         <v>3289.75</v>
       </c>
       <c r="I56">
         <f t="shared" si="3"/>
-        <v>853911.86915887531</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1006030.7580557682</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>56000</v>
       </c>
@@ -2280,11 +2275,11 @@
         <v>695009.48715750349</v>
       </c>
       <c r="C57" s="3">
-        <v>4057.99</v>
+        <v>4747.6899999999996</v>
       </c>
       <c r="D57">
         <f t="shared" si="1"/>
-        <v>3.5456698513303386E-10</v>
+        <v>3.0305880965269427E-10</v>
       </c>
       <c r="E57">
         <v>485947.65</v>
@@ -2294,17 +2289,17 @@
       </c>
       <c r="G57">
         <f t="shared" si="2"/>
-        <v>716595.70572070824</v>
+        <v>838389.02168146032</v>
       </c>
       <c r="H57">
         <v>3348.17</v>
       </c>
       <c r="I57">
         <f t="shared" si="3"/>
-        <v>842353.15076303692</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>985520.32665091916</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>57000</v>
       </c>
@@ -2313,11 +2308,11 @@
         <v>682816.33826000348</v>
       </c>
       <c r="C58" s="3">
-        <v>4111.8999999999996</v>
+        <v>4822.75</v>
       </c>
       <c r="D58">
         <f t="shared" si="1"/>
-        <v>3.561668960821032E-10</v>
+        <v>3.036696200300658E-10</v>
       </c>
       <c r="E58">
         <v>559708.87</v>
@@ -2327,17 +2322,17 @@
       </c>
       <c r="G58">
         <f t="shared" si="2"/>
-        <v>702374.66885758436</v>
+        <v>823798.59292125679</v>
       </c>
       <c r="H58">
         <v>3404.63</v>
       </c>
       <c r="I58">
         <f t="shared" si="3"/>
-        <v>824663.03277927649</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>967227.71500675019</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>58000</v>
       </c>
@@ -2346,11 +2341,11 @@
         <v>671043.64277276199</v>
       </c>
       <c r="C59" s="3">
-        <v>4163.78</v>
+        <v>4905.82</v>
       </c>
       <c r="D59">
         <f t="shared" si="1"/>
-        <v>3.578998025832297E-10</v>
+        <v>3.037649241105463E-10</v>
       </c>
       <c r="E59">
         <v>486399.09</v>
@@ -2360,17 +2355,17 @@
       </c>
       <c r="G59">
         <f t="shared" si="2"/>
-        <v>689551.90223749401</v>
+        <v>812439.06090973655</v>
       </c>
       <c r="H59">
         <v>3456.6</v>
       </c>
       <c r="I59">
         <f t="shared" si="3"/>
-        <v>808331.33683514746</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>952386.54272622545</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>59000</v>
       </c>
@@ -2379,11 +2374,11 @@
         <v>659670.02170881699</v>
       </c>
       <c r="C60" s="3">
-        <v>4231.32</v>
+        <v>4981.5200000000004</v>
       </c>
       <c r="D60">
         <f t="shared" si="1"/>
-        <v>3.582592240719208E-10</v>
+        <v>3.0430660119802782E-10</v>
       </c>
       <c r="E60">
         <v>463258.25</v>
@@ -2393,17 +2388,17 @@
       </c>
       <c r="G60">
         <f t="shared" si="2"/>
-        <v>681358.81352647208</v>
+        <v>802161.63201043452</v>
       </c>
       <c r="H60">
         <v>3510.28</v>
       </c>
       <c r="I60">
         <f t="shared" si="3"/>
-        <v>795171.59778050508</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>936153.07227426476</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>60000</v>
       </c>
@@ -2412,11 +2407,11 @@
         <v>648675.52134700329</v>
       </c>
       <c r="C61" s="3">
-        <v>4282.66</v>
+        <v>5054.8500000000004</v>
       </c>
       <c r="D61">
         <f t="shared" si="1"/>
-        <v>3.5996385424012177E-10</v>
+        <v>3.0497498442090265E-10</v>
       </c>
       <c r="E61">
         <v>455462.5</v>
@@ -2426,17 +2421,17 @@
       </c>
       <c r="G61">
         <f t="shared" si="2"/>
-        <v>667662.46199760074</v>
+        <v>788046.1199414786</v>
       </c>
       <c r="H61">
         <v>3563.52</v>
       </c>
       <c r="I61">
         <f t="shared" si="3"/>
-        <v>779582.18510123622</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>920145.65909014118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>61000</v>
       </c>
@@ -2445,11 +2440,11 @@
         <v>638041.49640688847</v>
       </c>
       <c r="C62" s="3">
-        <v>4317.03</v>
+        <v>5138.72</v>
       </c>
       <c r="D62">
         <f t="shared" si="1"/>
-        <v>3.6304963829299312E-10</v>
+        <v>3.0499738845471245E-10</v>
       </c>
       <c r="E62">
         <v>449681.87</v>
@@ -2459,17 +2454,17 @@
       </c>
       <c r="G62">
         <f t="shared" si="2"/>
-        <v>654459.72567340499</v>
+        <v>779027.54475008044</v>
       </c>
       <c r="H62">
         <v>3624.6</v>
       </c>
       <c r="I62">
         <f t="shared" si="3"/>
-        <v>759930.55267710355</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>904573.35938200238</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>62000</v>
       </c>
@@ -2478,11 +2473,11 @@
         <v>627750.504529358</v>
       </c>
       <c r="C63" s="3">
-        <v>4388.55</v>
+        <v>5213.9399999999996</v>
       </c>
       <c r="D63">
         <f t="shared" si="1"/>
-        <v>3.6298767474450556E-10</v>
+        <v>3.055251038562009E-10</v>
       </c>
       <c r="E63">
         <v>444350.21</v>
@@ -2492,17 +2487,17 @@
       </c>
       <c r="G63">
         <f t="shared" si="2"/>
-        <v>646676.84089197568</v>
+        <v>768302.5709631443</v>
       </c>
       <c r="H63">
         <v>3674.82</v>
       </c>
       <c r="I63">
         <f t="shared" si="3"/>
-        <v>749673.3109791266</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>890670.41803021648</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>63000</v>
       </c>
@@ -2511,11 +2506,11 @@
         <v>617786.21080666978</v>
       </c>
       <c r="C64" s="3">
-        <v>4435.8999999999996</v>
+        <v>5279.66</v>
       </c>
       <c r="D64">
         <f t="shared" si="1"/>
-        <v>3.6490519173110307E-10</v>
+        <v>3.0658848107643296E-10</v>
       </c>
       <c r="E64">
         <v>440825</v>
@@ -2525,17 +2520,17 @@
       </c>
       <c r="G64">
         <f t="shared" si="2"/>
-        <v>636146.83184898947</v>
+        <v>757149.39070759853</v>
       </c>
       <c r="H64">
         <v>3717.61</v>
       </c>
       <c r="I64">
         <f t="shared" si="3"/>
-        <v>737150.44141728315</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>877365.06673576357</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>64000</v>
       </c>
@@ -2544,11 +2539,11 @@
         <v>608133.3012628156</v>
       </c>
       <c r="C65" s="3">
-        <v>4482.4799999999996</v>
+        <v>5355.96</v>
       </c>
       <c r="D65">
         <f t="shared" si="1"/>
-        <v>3.6684521068694118E-10</v>
+        <v>3.0701803598234488E-10</v>
       </c>
       <c r="E65">
         <v>430791.34</v>
@@ -2558,17 +2553,17 @@
       </c>
       <c r="G65">
         <f t="shared" si="2"/>
-        <v>625926.017148913</v>
+        <v>747897.30479754345</v>
       </c>
       <c r="H65">
         <v>3771.65</v>
       </c>
       <c r="I65">
         <f t="shared" si="3"/>
-        <v>722746.10853195423</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>863584.27643911541</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>65000</v>
       </c>
@@ -2577,11 +2572,11 @@
         <v>598777.40432031068</v>
       </c>
       <c r="C66" s="3">
-        <v>4527.37</v>
+        <v>5435.66</v>
       </c>
       <c r="D66">
         <f t="shared" si="1"/>
-        <v>3.6888297179156998E-10</v>
+        <v>3.072432234540056E-10</v>
       </c>
       <c r="E66">
         <v>535785.06000000006</v>
@@ -2591,17 +2586,17 @@
       </c>
       <c r="G66">
         <f t="shared" si="2"/>
-        <v>612335.04708414816</v>
+        <v>735182.92563528509</v>
       </c>
       <c r="H66">
         <v>3823.73</v>
       </c>
       <c r="I66">
         <f t="shared" si="3"/>
-        <v>708963.98464265128</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>851197.75338942336</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>66000</v>
       </c>
@@ -2610,11 +2605,11 @@
         <v>589705.01940636663</v>
       </c>
       <c r="C67" s="3">
-        <v>4583.03</v>
+        <v>5502.63</v>
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D101" si="5">1/(B67*C67)</f>
-        <v>3.7000915987894473E-10</v>
+        <v>3.0817319718025743E-10</v>
       </c>
       <c r="E67">
         <v>420986.46</v>
@@ -2624,17 +2619,17 @@
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G101" si="6">1/(D67*F67)</f>
-        <v>604179.9315237446</v>
+        <v>725410.61625180359</v>
       </c>
       <c r="H67">
         <v>3882.26</v>
       </c>
       <c r="I67">
         <f t="shared" ref="I67:I101" si="7">1/(D67*H67)</f>
-        <v>696150.1277838063</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>835834.93401679827</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>67000</v>
       </c>
@@ -2643,11 +2638,11 @@
         <v>580903.4519525402</v>
       </c>
       <c r="C68" s="3">
-        <v>4642.99</v>
+        <v>5574.87</v>
       </c>
       <c r="D68">
         <f t="shared" si="5"/>
-        <v>3.7076462796603057E-10</v>
+        <v>3.0878862825500865E-10</v>
       </c>
       <c r="E68">
         <v>415320.87</v>
@@ -2657,17 +2652,17 @@
       </c>
       <c r="G68">
         <f t="shared" si="6"/>
-        <v>596169.16477998369</v>
+        <v>715824.41307368479</v>
       </c>
       <c r="H68">
         <v>3935.03</v>
       </c>
       <c r="I68">
         <f t="shared" si="7"/>
-        <v>685415.08409875503</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>822982.60170485545</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>68000</v>
       </c>
@@ -2676,11 +2671,11 @@
         <v>572360.75412970874</v>
       </c>
       <c r="C69" s="3">
-        <v>4694.3</v>
+        <v>5653.41</v>
       </c>
       <c r="D69">
         <f t="shared" si="5"/>
-        <v>3.7218538227211721E-10</v>
+        <v>3.0904354009350114E-10</v>
       </c>
       <c r="E69">
         <v>430136.59</v>
@@ -2690,17 +2685,17 @@
       </c>
       <c r="G69">
         <f t="shared" si="6"/>
-        <v>587379.64486379072</v>
+        <v>707389.37819683482</v>
       </c>
       <c r="H69">
         <v>3989.34</v>
       </c>
       <c r="I69">
         <f t="shared" si="7"/>
-        <v>673503.15794369299</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+        <v>811109.10852532915</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>69000</v>
       </c>
@@ -2709,11 +2704,11 @@
         <v>564065.67073652463</v>
       </c>
       <c r="C70" s="3">
-        <v>4733.9399999999996</v>
+        <v>5721.8</v>
       </c>
       <c r="D70">
         <f t="shared" si="5"/>
-        <v>3.7449634342640588E-10</v>
+        <v>3.0984012373728545E-10</v>
       </c>
       <c r="E70">
         <v>549128.75</v>
@@ -2723,17 +2718,17 @@
       </c>
       <c r="G70">
         <f t="shared" si="6"/>
-        <v>576438.43191794702</v>
+        <v>696727.339118812</v>
       </c>
       <c r="H70">
         <v>4039.93</v>
       </c>
       <c r="I70">
         <f t="shared" si="7"/>
-        <v>660965.17546751152</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+        <v>798892.79141476378</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>70000</v>
       </c>
@@ -2742,11 +2737,11 @@
         <v>556007.58972600289</v>
       </c>
       <c r="C71" s="3">
-        <v>4773.2299999999996</v>
+        <v>5794.25</v>
       </c>
       <c r="D71">
         <f t="shared" si="5"/>
-        <v>3.7679655076331955E-10</v>
+        <v>3.1040024161884624E-10</v>
       </c>
       <c r="E71">
         <v>595726.37</v>
@@ -2756,17 +2751,17 @@
       </c>
       <c r="G71">
         <f t="shared" si="6"/>
-        <v>565795.02831325424</v>
+        <v>686821.67898971413</v>
       </c>
       <c r="H71">
         <v>4093.13</v>
       </c>
       <c r="I71">
         <f t="shared" si="7"/>
-        <v>648391.84377428726</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <v>787086.40496878722</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>71000</v>
       </c>
@@ -2775,11 +2770,11 @@
         <v>548176.49691296055</v>
       </c>
       <c r="C72" s="3">
-        <v>4827.71</v>
+        <v>5858.25</v>
       </c>
       <c r="D72">
         <f t="shared" si="5"/>
-        <v>3.7786652056565119E-10</v>
+        <v>3.113950377672513E-10</v>
       </c>
       <c r="E72">
         <v>587940.56000000006</v>
@@ -2789,17 +2784,17 @@
       </c>
       <c r="G72">
         <f t="shared" si="6"/>
-        <v>559634.15274931828</v>
+        <v>679095.63236890652</v>
       </c>
       <c r="H72">
         <v>4146.71</v>
       </c>
       <c r="I72">
         <f t="shared" si="7"/>
-        <v>638201.64803221554</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+        <v>774434.42223843746</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>72000</v>
       </c>
@@ -2808,11 +2803,11 @@
         <v>540562.93445583608</v>
       </c>
       <c r="C73" s="3">
-        <v>4879.03</v>
+        <v>5942.42</v>
       </c>
       <c r="D73">
         <f t="shared" si="5"/>
-        <v>3.7915802116404287E-10</v>
+        <v>3.1130807987318294E-10</v>
       </c>
       <c r="E73">
         <v>579428.12</v>
@@ -2822,17 +2817,17 @@
       </c>
       <c r="G73">
         <f t="shared" si="6"/>
-        <v>551111.82080099161</v>
+        <v>671227.25340164523</v>
       </c>
       <c r="H73">
         <v>4188.24</v>
       </c>
       <c r="I73">
         <f t="shared" si="7"/>
-        <v>629721.02221889328</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+        <v>766969.41745674785</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>73000</v>
       </c>
@@ -2841,11 +2836,11 @@
         <v>533157.96275096154</v>
       </c>
       <c r="C74" s="3">
-        <v>4882.45</v>
+        <v>6033.1</v>
       </c>
       <c r="D74">
         <f t="shared" si="5"/>
-        <v>3.8415482800643121E-10</v>
+        <v>3.1088772604465363E-10</v>
       </c>
       <c r="E74">
         <v>567954.56000000006</v>
@@ -2855,17 +2850,17 @@
       </c>
       <c r="G74">
         <f t="shared" si="6"/>
-        <v>540003.04844943993</v>
+        <v>667265.89962013264</v>
       </c>
       <c r="H74">
         <v>4238.7700000000004</v>
       </c>
       <c r="I74">
         <f t="shared" si="7"/>
-        <v>614120.86412648764</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <v>758851.106588191</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>74000</v>
       </c>
@@ -2874,11 +2869,11 @@
         <v>525953.1254164892</v>
       </c>
       <c r="C75" s="3">
-        <v>4969.9399999999996</v>
+        <v>6116.9</v>
       </c>
       <c r="D75">
         <f t="shared" si="5"/>
-        <v>3.8256198666382285E-10</v>
+        <v>3.1082903431476724E-10</v>
       </c>
       <c r="E75">
         <v>567183.31000000006</v>
@@ -2888,17 +2883,17 @@
       </c>
       <c r="G75">
         <f t="shared" si="6"/>
-        <v>537110.4600925527</v>
+        <v>661064.5145293778</v>
       </c>
       <c r="H75">
         <v>4284.8500000000004</v>
       </c>
       <c r="I75">
         <f t="shared" si="7"/>
-        <v>610045.97036825703</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <v>750832.04146239022</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>75000</v>
       </c>
@@ -2907,11 +2902,11 @@
         <v>518940.41707760264</v>
       </c>
       <c r="C76" s="3">
-        <v>5001.05</v>
+        <v>6191.5</v>
       </c>
       <c r="D76">
         <f t="shared" si="5"/>
-        <v>3.8531978284560235E-10</v>
+        <v>3.1123370750222077E-10</v>
       </c>
       <c r="E76">
         <v>559297.93000000005</v>
@@ -2921,17 +2916,17 @@
       </c>
       <c r="G76">
         <f t="shared" si="6"/>
-        <v>527025.39692220977</v>
+        <v>652478.5285177835</v>
       </c>
       <c r="H76">
         <v>4328.16</v>
       </c>
       <c r="I76">
         <f t="shared" si="7"/>
-        <v>599619.00041263376</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <v>742352.31422497705</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>76000</v>
       </c>
@@ -2940,11 +2935,11 @@
         <v>512112.25369500264</v>
       </c>
       <c r="C77" s="3">
-        <v>5040.38</v>
+        <v>6255.92</v>
       </c>
       <c r="D77">
         <f t="shared" si="5"/>
-        <v>3.8741064760990242E-10</v>
+        <v>3.1213584572692738E-10</v>
       </c>
       <c r="E77">
         <v>555779.12</v>
@@ -2954,17 +2949,17 @@
       </c>
       <c r="G77">
         <f t="shared" si="6"/>
-        <v>517982.27691896813</v>
+        <v>642899.08416089893</v>
       </c>
       <c r="H77">
         <v>4387.42</v>
       </c>
       <c r="I77">
         <f t="shared" si="7"/>
-        <v>588327.61880084814</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>730208.93603430747</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>77000</v>
       </c>
@@ -2973,11 +2968,11 @@
         <v>505461.44520545716</v>
       </c>
       <c r="C78" s="3">
-        <v>5085.7</v>
+        <v>6322.78</v>
       </c>
       <c r="D78">
         <f t="shared" si="5"/>
-        <v>3.8901041351239748E-10</v>
+        <v>3.1289879768076698E-10</v>
       </c>
       <c r="E78">
         <v>548011.37</v>
@@ -2987,17 +2982,17 @@
       </c>
       <c r="G78">
         <f t="shared" si="6"/>
-        <v>511417.60955131392</v>
+        <v>635818.28132191382</v>
       </c>
       <c r="H78">
         <v>4441.49</v>
       </c>
       <c r="I78">
         <f t="shared" si="7"/>
-        <v>578775.42713850387</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <v>719560.66917096742</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>78000</v>
       </c>
@@ -3006,11 +3001,11 @@
         <v>498981.17026692559</v>
       </c>
       <c r="C79" s="3">
-        <v>5127.8</v>
+        <v>6398.92</v>
       </c>
       <c r="D79">
         <f t="shared" si="5"/>
-        <v>3.9082718514762667E-10</v>
+        <v>3.1319091971770238E-10</v>
       </c>
       <c r="E79">
         <v>362284.21</v>
@@ -3020,17 +3015,17 @@
       </c>
       <c r="G79">
         <f t="shared" si="6"/>
-        <v>504468.76094627799</v>
+        <v>629520.50465976773</v>
       </c>
       <c r="H79">
         <v>4487.1899999999996</v>
       </c>
       <c r="I79">
         <f t="shared" si="7"/>
-        <v>570217.80778053554</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <v>711567.95010784827</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>79000</v>
       </c>
@@ -3039,11 +3034,11 @@
         <v>492664.95292177459</v>
       </c>
       <c r="C80" s="3">
-        <v>5180.5200000000004</v>
+        <v>6473.96</v>
       </c>
       <c r="D80">
         <f t="shared" si="5"/>
-        <v>3.9180951333070814E-10</v>
+        <v>3.135294348435888E-10</v>
       </c>
       <c r="E80">
         <v>358331.84</v>
@@ -3053,17 +3048,17 @@
       </c>
       <c r="G80">
         <f t="shared" si="6"/>
-        <v>500304.94351763761</v>
+        <v>625217.96887869271</v>
       </c>
       <c r="H80">
         <v>4532.1000000000004</v>
       </c>
       <c r="I80">
         <f t="shared" si="7"/>
-        <v>563151.8814479626</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <v>703756.1392329057</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>80000</v>
       </c>
@@ -3072,11 +3067,11 @@
         <v>486506.64101025247</v>
       </c>
       <c r="C81" s="3">
-        <v>5219.78</v>
+        <v>6546.59</v>
       </c>
       <c r="D81">
         <f t="shared" si="5"/>
-        <v>3.9378487215936304E-10</v>
+        <v>3.1397573393171098E-10</v>
       </c>
       <c r="E81">
         <v>354362.12</v>
@@ -3086,17 +3081,17 @@
       </c>
       <c r="G81">
         <f t="shared" si="6"/>
-        <v>492122.92418573966</v>
+        <v>617215.09608549054</v>
       </c>
       <c r="H81">
         <v>4582.2700000000004</v>
       </c>
       <c r="I81">
         <f t="shared" si="7"/>
-        <v>554192.05647255515</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+        <v>695061.51120979525</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>81000</v>
       </c>
@@ -3105,11 +3100,11 @@
         <v>480500.38618296536</v>
       </c>
       <c r="C82" s="3">
-        <v>5282.03</v>
+        <v>6615.85</v>
       </c>
       <c r="D82">
         <f t="shared" si="5"/>
-        <v>3.9400832255780451E-10</v>
+        <v>3.1457239508150877E-10</v>
       </c>
       <c r="E82">
         <v>350690.71</v>
@@ -3119,17 +3114,17 @@
       </c>
       <c r="G82">
         <f t="shared" si="6"/>
-        <v>486744.54043039744</v>
+        <v>609657.43621419137</v>
       </c>
       <c r="H82">
         <v>4635</v>
       </c>
       <c r="I82">
         <f t="shared" si="7"/>
-        <v>547576.58140884759</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+        <v>685850.80473108345</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>82000</v>
       </c>
@@ -3138,11 +3133,11 @@
         <v>474640.62537585601</v>
       </c>
       <c r="C83" s="3">
-        <v>5324.64</v>
+        <v>6681.29</v>
       </c>
       <c r="D83">
         <f t="shared" si="5"/>
-        <v>3.9568067700351574E-10</v>
+        <v>3.1533688254813073E-10</v>
       </c>
       <c r="E83">
         <v>516513.75</v>
@@ -3152,17 +3147,17 @@
       </c>
       <c r="G83">
         <f t="shared" si="6"/>
-        <v>479248.01780642616</v>
+        <v>601354.26787348941</v>
       </c>
       <c r="H83">
         <v>4688.71</v>
       </c>
       <c r="I83">
         <f t="shared" si="7"/>
-        <v>539016.15998884512</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+        <v>676350.56634286453</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>83000</v>
       </c>
@@ -3171,11 +3166,11 @@
         <v>468922.06362433976</v>
       </c>
       <c r="C84" s="3">
-        <v>5383.54</v>
+        <v>6742.78</v>
       </c>
       <c r="D84">
         <f t="shared" si="5"/>
-        <v>3.9612421194975793E-10</v>
+        <v>3.1627170692207071E-10</v>
       </c>
       <c r="E84">
         <v>516029.12</v>
@@ -3185,17 +3180,17 @@
       </c>
       <c r="G84">
         <f t="shared" si="6"/>
-        <v>477088.3806342337</v>
+        <v>597543.993575398</v>
       </c>
       <c r="H84">
         <v>4739.95</v>
       </c>
       <c r="I84">
         <f t="shared" si="7"/>
-        <v>532592.26076312573</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+        <v>667061.53275138454</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>84000</v>
       </c>
@@ -3204,11 +3199,11 @@
         <v>463339.65810500231</v>
       </c>
       <c r="C85" s="3">
-        <v>5412.24</v>
+        <v>6806.94</v>
       </c>
       <c r="D85">
         <f t="shared" si="5"/>
-        <v>3.9877091924970073E-10</v>
+        <v>3.1706521873264642E-10</v>
       </c>
       <c r="E85">
         <v>510902.03</v>
@@ -3218,17 +3213,17 @@
       </c>
       <c r="G85">
         <f t="shared" si="6"/>
-        <v>469688.67879526393</v>
+        <v>590724.47918766236</v>
       </c>
       <c r="H85">
         <v>4786.8999999999996</v>
       </c>
       <c r="I85">
         <f t="shared" si="7"/>
-        <v>523868.3555499838</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+        <v>658865.91579963325</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>85000</v>
       </c>
@@ -3237,11 +3232,11 @@
         <v>457888.60330376704</v>
       </c>
       <c r="C86" s="3">
-        <v>5466.54</v>
+        <v>6871.49</v>
       </c>
       <c r="D86">
         <f t="shared" si="5"/>
-        <v>3.9950998254837608E-10</v>
+        <v>3.1782587182692546E-10</v>
       </c>
       <c r="E86">
         <v>507254.9</v>
@@ -3251,17 +3246,17 @@
       </c>
       <c r="G86">
         <f t="shared" si="6"/>
-        <v>464716.69658947736</v>
+        <v>584153.07186037733</v>
       </c>
       <c r="H86">
         <v>4825.84</v>
       </c>
       <c r="I86">
         <f t="shared" si="7"/>
-        <v>518679.93251002405</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+        <v>651985.34529031254</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>86000</v>
       </c>
@@ -3270,11 +3265,11 @@
         <v>452564.3172188396</v>
       </c>
       <c r="C87" s="3">
-        <v>5503.18</v>
+        <v>6940.13</v>
       </c>
       <c r="D87">
         <f t="shared" si="5"/>
-        <v>4.015188818101533E-10</v>
+        <v>3.1838462391914839E-10</v>
       </c>
       <c r="E87">
         <v>502022.78</v>
@@ -3284,17 +3279,17 @@
       </c>
       <c r="G87">
         <f t="shared" si="6"/>
-        <v>459179.35419760208</v>
+        <v>579076.89943767129</v>
       </c>
       <c r="H87">
         <v>4874.62</v>
       </c>
       <c r="I87">
         <f t="shared" si="7"/>
-        <v>510920.42030606978</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+        <v>644328.2132473886</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>87000</v>
       </c>
@@ -3303,11 +3298,11 @@
         <v>447362.42851517466</v>
       </c>
       <c r="C88" s="3">
-        <v>5545.59</v>
+        <v>7015.15</v>
       </c>
       <c r="D88">
         <f t="shared" si="5"/>
-        <v>4.0308137817617238E-10</v>
+        <v>3.1864237543031872E-10</v>
       </c>
       <c r="E88">
         <v>497179</v>
@@ -3317,17 +3312,17 @@
       </c>
       <c r="G88">
         <f t="shared" si="6"/>
-        <v>453195.73234301712</v>
+        <v>573290.85665296484</v>
       </c>
       <c r="H88">
         <v>4927.99</v>
       </c>
       <c r="I88">
         <f t="shared" si="7"/>
-        <v>503428.09339090943</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <v>636834.59998868243</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>88000</v>
       </c>
@@ -3336,11 +3331,11 @@
         <v>442278.76455477497</v>
       </c>
       <c r="C89" s="3">
-        <v>5599.77</v>
+        <v>7084.29</v>
       </c>
       <c r="D89">
         <f t="shared" si="5"/>
-        <v>4.0376969768401195E-10</v>
+        <v>3.1915935683039512E-10</v>
       </c>
       <c r="E89">
         <v>492978.5</v>
@@ -3350,17 +3345,17 @@
       </c>
       <c r="G89">
         <f t="shared" si="6"/>
-        <v>448913.3348300787</v>
+        <v>567921.94122318912</v>
       </c>
       <c r="H89">
         <v>4980.2299999999996</v>
       </c>
       <c r="I89">
         <f t="shared" si="7"/>
-        <v>497298.18851556908</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+        <v>629133.80083806312</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>89000</v>
       </c>
@@ -3369,11 +3364,11 @@
         <v>437309.34023393481</v>
       </c>
       <c r="C90" s="3">
-        <v>5656.21</v>
+        <v>7156.91</v>
       </c>
       <c r="D90">
         <f t="shared" si="5"/>
-        <v>4.0428322498634239E-10</v>
+        <v>3.1951090903755952E-10</v>
       </c>
       <c r="E90">
         <v>330158.68</v>
@@ -3383,17 +3378,17 @@
       </c>
       <c r="G90">
         <f t="shared" si="6"/>
-        <v>443786.21288786631</v>
+        <v>561531.12859658652</v>
       </c>
       <c r="H90">
         <v>5023.62</v>
       </c>
       <c r="I90">
         <f t="shared" si="7"/>
-        <v>492376.70510997745</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+        <v>623013.60178788402</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>90000</v>
       </c>
@@ -3402,11 +3397,11 @@
         <v>432450.34756466892</v>
       </c>
       <c r="C91" s="3">
-        <v>5712.53</v>
+        <v>7219.46</v>
       </c>
       <c r="D91">
         <f t="shared" si="5"/>
-        <v>4.047951082970242E-10</v>
+        <v>3.2030154609901566E-10</v>
       </c>
       <c r="E91">
         <v>484623.5</v>
@@ -3416,17 +3411,17 @@
       </c>
       <c r="G91">
         <f t="shared" si="6"/>
-        <v>439071.16001087695</v>
+        <v>554895.41006386408</v>
       </c>
       <c r="H91">
         <v>5069.0600000000004</v>
       </c>
       <c r="I91">
         <f t="shared" si="7"/>
-        <v>487345.89528898813</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+        <v>615904.72123613139</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>91000</v>
       </c>
@@ -3435,11 +3430,11 @@
         <v>427698.14594307903</v>
       </c>
       <c r="C92" s="3">
-        <v>5745.34</v>
+        <v>7279.75</v>
       </c>
       <c r="D92">
         <f t="shared" si="5"/>
-        <v>4.0695547696045844E-10</v>
+        <v>3.2117827947388305E-10</v>
       </c>
       <c r="E92">
         <v>480065.53</v>
@@ -3449,17 +3444,17 @@
       </c>
       <c r="G92">
         <f t="shared" si="6"/>
-        <v>432844.50950807193</v>
+        <v>548444.44681975082</v>
       </c>
       <c r="H92">
         <v>5113.62</v>
       </c>
       <c r="I92">
         <f t="shared" si="7"/>
-        <v>480534.58524736093</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+        <v>608871.12807152851</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>92000</v>
       </c>
@@ -3468,11 +3463,11 @@
         <v>423049.25305239344</v>
       </c>
       <c r="C93" s="3">
-        <v>5781.29</v>
+        <v>7342.41</v>
       </c>
       <c r="D93">
         <f t="shared" si="5"/>
-        <v>4.0886912090554182E-10</v>
+        <v>3.2193666112352757E-10</v>
       </c>
       <c r="E93">
         <v>475349.12</v>
@@ -3482,17 +3477,17 @@
       </c>
       <c r="G93">
         <f t="shared" si="6"/>
-        <v>427830.56182596745</v>
+        <v>543357.51976749161</v>
       </c>
       <c r="H93">
         <v>5160.9799999999996</v>
       </c>
       <c r="I93">
         <f t="shared" si="7"/>
-        <v>473896.51116246759</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+        <v>601862.64354917558</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>93000</v>
       </c>
@@ -3501,11 +3496,11 @@
         <v>418500.33635290537</v>
       </c>
       <c r="C94" s="3">
-        <v>5838.1</v>
+        <v>7401.1</v>
       </c>
       <c r="D94">
         <f t="shared" si="5"/>
-        <v>4.0929143728267751E-10</v>
+        <v>3.2285529718555344E-10</v>
       </c>
       <c r="E94">
         <v>471287.75</v>
@@ -3515,17 +3510,17 @@
       </c>
       <c r="G94">
         <f t="shared" si="6"/>
-        <v>424338.34110749234</v>
+        <v>537943.93661819107</v>
       </c>
       <c r="H94">
         <v>5202.3500000000004</v>
       </c>
       <c r="I94">
         <f t="shared" si="7"/>
-        <v>469642.91400269052</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+        <v>595377.63498832029</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>94000</v>
       </c>
@@ -3534,11 +3529,11 @@
         <v>414048.20511510852</v>
       </c>
       <c r="C95" s="3">
-        <v>5867.17</v>
+        <v>7471</v>
       </c>
       <c r="D95">
         <f t="shared" si="5"/>
-        <v>4.1164270338169846E-10</v>
+        <v>3.2327368759202245E-10</v>
       </c>
       <c r="E95">
         <v>467294.12</v>
@@ -3548,17 +3543,17 @@
       </c>
       <c r="G95">
         <f t="shared" si="6"/>
-        <v>419998.3070003218</v>
+        <v>534807.641776087</v>
       </c>
       <c r="H95">
         <v>5247.98</v>
       </c>
       <c r="I95">
         <f t="shared" si="7"/>
-        <v>462900.2411604487</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+        <v>589437.10540340771</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>95000</v>
       </c>
@@ -3567,11 +3562,11 @@
         <v>409689.80295600207</v>
       </c>
       <c r="C96" s="3">
-        <v>5909.24</v>
+        <v>7533.89</v>
       </c>
       <c r="D96">
         <f t="shared" si="5"/>
-        <v>4.1306007202279819E-10</v>
+        <v>3.239854975318195E-10</v>
       </c>
       <c r="E96">
         <v>463516.87</v>
@@ -3581,17 +3576,17 @@
       </c>
       <c r="G96">
         <f t="shared" si="6"/>
-        <v>416672.61101057031</v>
+        <v>531230.00882794161</v>
       </c>
       <c r="H96">
         <v>5292.84</v>
       </c>
       <c r="I96">
         <f t="shared" si="7"/>
-        <v>457401.95645810675</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+        <v>583157.22931208857</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>96000</v>
       </c>
@@ -3600,11 +3595,11 @@
         <v>405422.20084187703</v>
       </c>
       <c r="C97" s="3">
-        <v>5962.59</v>
+        <v>7597.16</v>
       </c>
       <c r="D97">
         <f t="shared" si="5"/>
-        <v>4.1367333323270597E-10</v>
+        <v>3.246692816789432E-10</v>
       </c>
       <c r="E97">
         <v>459354.84</v>
@@ -3614,17 +3609,17 @@
       </c>
       <c r="G97">
         <f t="shared" si="6"/>
-        <v>412487.47718059114</v>
+        <v>525565.79643029289</v>
       </c>
       <c r="H97">
         <v>5334.22</v>
       </c>
       <c r="I97">
         <f t="shared" si="7"/>
-        <v>453180.85128055594</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+        <v>577414.75367492798</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>97000</v>
       </c>
@@ -3633,11 +3628,11 @@
         <v>401242.59052391956</v>
       </c>
       <c r="C98" s="3">
-        <v>6020.43</v>
+        <v>7662.61</v>
       </c>
       <c r="D98">
         <f t="shared" si="5"/>
-        <v>4.1396675320533585E-10</v>
+        <v>3.2524921143057003E-10</v>
       </c>
       <c r="E98">
         <v>455229.37</v>
@@ -3647,17 +3642,17 @@
       </c>
       <c r="G98">
         <f t="shared" si="6"/>
-        <v>409953.82762289705</v>
+        <v>521776.06899864081</v>
       </c>
       <c r="H98">
         <v>5378.29</v>
       </c>
       <c r="I98">
         <f t="shared" si="7"/>
-        <v>449148.87989824289</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+        <v>571662.27305974404</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>98000</v>
       </c>
@@ -3666,11 +3661,11 @@
         <v>397148.27837571636</v>
       </c>
       <c r="C99" s="3">
-        <v>6046.58</v>
+        <v>7725.62</v>
       </c>
       <c r="D99">
         <f t="shared" si="5"/>
-        <v>4.1642568857105993E-10</v>
+        <v>3.2592222242357241E-10</v>
       </c>
       <c r="E99">
         <v>451848.15</v>
@@ -3680,17 +3675,17 @@
       </c>
       <c r="G99">
         <f t="shared" si="6"/>
-        <v>403983.80912391917</v>
+        <v>516163.74801026902</v>
       </c>
       <c r="H99">
         <v>5428.12</v>
       </c>
       <c r="I99">
         <f t="shared" si="7"/>
-        <v>442397.89044108067</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+        <v>565244.81448180985</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>99000</v>
       </c>
@@ -3699,11 +3694,11 @@
         <v>393136.67960424436</v>
       </c>
       <c r="C100" s="3">
-        <v>6084.26</v>
+        <v>7778.53</v>
       </c>
       <c r="D100">
         <f t="shared" si="5"/>
-        <v>4.1806967815313612E-10</v>
+        <v>3.270083961879687E-10</v>
       </c>
       <c r="E100">
         <v>448311.21</v>
@@ -3713,17 +3708,17 @@
       </c>
       <c r="G100">
         <f t="shared" si="6"/>
-        <v>398986.12761989364</v>
+        <v>510090.88422834844</v>
       </c>
       <c r="H100">
         <v>5474.94</v>
       </c>
       <c r="I100">
         <f t="shared" si="7"/>
-        <v>436889.86075626768</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+        <v>558549.58344785578</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>100000</v>
       </c>
@@ -3732,11 +3727,11 @@
         <v>389205.312808202</v>
       </c>
       <c r="C101" s="3">
-        <v>6123.04</v>
+        <v>7843.86</v>
       </c>
       <c r="D101">
         <f t="shared" si="5"/>
-        <v>4.1961803287256E-10</v>
+        <v>3.2756041030819009E-10</v>
       </c>
       <c r="E101">
         <v>445260.37</v>
@@ -3746,24 +3741,24 @@
       </c>
       <c r="G101">
         <f t="shared" si="6"/>
-        <v>394701.31381685543</v>
+        <v>505628.22509659891</v>
       </c>
       <c r="H101">
         <v>5509.67</v>
       </c>
       <c r="I101">
         <f t="shared" si="7"/>
-        <v>432534.01719833189</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+        <v>554093.43661666545</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B102" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102">
-        <f>AVERAGE(D2:D101)</f>
-        <v>3.4180139545562257E-10</v>
+        <f>AVERAGE(D5:D101)</f>
+        <v>3.0005039450064002E-10</v>
       </c>
     </row>
   </sheetData>
@@ -3771,5 +3766,6 @@
     <mergeCell ref="B102:C102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>